--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albinothajrizaj/Desktop/Bennys_Arbeit/Quiz/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF53533-9462-AF4C-A35F-462574745E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E438051-BE0B-4292-9001-96C4E4B5D0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26020" windowHeight="18060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="424">
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>frage</t>
   </si>
@@ -43,90 +59,1254 @@
     <t>e</t>
   </si>
   <si>
-    <t>Wer malte die Mona Lisa?</t>
-  </si>
-  <si>
-    <t>Was ist 2+2?</t>
-  </si>
-  <si>
-    <t>Welche Programmiersprache stammt von Guido van Rossum?</t>
-  </si>
-  <si>
-    <t>Vincent van Gogh</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Leonardo da Vinci</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Claude Monet</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>You install Active Directory on a server. You want it to be a separate domain
-that is part of an existing forest but containing a namespace separate from
-the forest where you are installing it. What is this type of domain called?</t>
+    <t>info</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Ein Vorgesetzter sagt Ihnen, dass  einer seiner Mitarbeiter zu einer Konkurenzfirma gewechselt hat. Er will sichergehen, dass der Mitarbeiter keinen Zugriff mehr auf seinen Computer oder die Dateien auf dem Dateiserver hat. Was wäre das beste Vorgehen?</t>
+  </si>
+  <si>
+    <t>Sie planen den Ressourcenzugirff in einer Gesamtstruktur mit mehrenen Domänen. Bestimmte Benutzer in allen Domänen brauchen Zugriff auf die drei kontinentalen Hauptdomänen. Was ist die empfohlene Strategie, um diesen Ressourcenzugriff zu ermöglichen?</t>
+  </si>
+  <si>
+    <t>Sie müssen Ihren Vorgesetzten erklären, was Profile sind. Ihnen wird bewusst, dass Sie Ihre Präsentation mit einer Definition der drei Profiltypen beginnen müssen. Wählen Sie die drei Profiltypen aus.</t>
+  </si>
+  <si>
+    <t>Sie sind Administrator eines kleinen Unternehmens, das Callcenter-Dienste für andere Firmen anbietet. Eine Mitarbeiterin ruft Sie an und beschwert sich, dass das Foto ihres Enkels, das sie als Desktop-Hintergrund festgelegt hat, bei der Anmeldung heute morgen verschwunden war. Was ist die wahrscheinlichste Ursache des Problems?</t>
+  </si>
+  <si>
+    <t>Aus betriebwirtschaftlichen Gründen musste Ihre Firma 200 Mitarbeiter entlassen. Die Personalabteilung hat Ihnen die Liste der Namen als Textdatei übermittelt. Mit welchem Kommando könnte man diese Benutzerkonten löschen.</t>
+  </si>
+  <si>
+    <t>Ihr Unternehmen hat unglängst eine kleine Firma übernommen. Diese andere Firma setzt ein LDAP-kompatibles Verzeichnis unter UNIX ein. Sie sollen nun Benutzerkonten in Active Directory für die Mitarbeiter dieser Firma anlegen. Welches Tool ist am besten für diese Aufgabe geeignet?</t>
+  </si>
+  <si>
+    <t>Sie sind Administrator einer kleinen Universität. In solchen Umgebungen ist es üblich, dass gelangweilte Studenten jede Nacht zwischen 22 Uht und 2 Uhr morgens versuchen, dass System zu hacken. Mit welchen beiden Maßnahmen schützen Sie sich vor Wörterbuchangriffen und stellen sicher, dass sich Ihre Benutzer um 8 Uhr morgens anmelden können?</t>
+  </si>
+  <si>
+    <t>Sie sind Administrator eines kleinen Unternehmens, das Callcenter-Dienste für andere Firmen anbietet. Eine Mitarbeiterin ruft Sie an und beschwert sich, dass sie keinerlei Dateien in Eigene Datein findet. Bis gestern war alles noch in Ordnung. Gruppenrichtlinien werden nicht verwendet. Was ist die wahrscheinlichste Ursache des Problems?</t>
+  </si>
+  <si>
+    <t>Sie sind ein untergeordneter Administrator einer großen Entwicklungsfirma mit etlichen Niederlassungen. Sie haben in einem Magazin gelesen, dass die beste Methode zur Zuweisung von Ressourcen in einer Umgebung mit mehreren Domänen die folgende ist: Man weißt einer lokalen Domänengruppe Berechtigungen zu, dann nimmt man die globalen Gruppen in die lokale Domänengruppe auf und nimmt schließlich die globalen Gruppen  in eine universale Gruppe auf. Doch der Server erlaubt Ihnen nicht, universale Gruppen einzurichten. Was ist der wahrscheinlichste Grund dafür?</t>
+  </si>
+  <si>
+    <t>Sie sind Administrator einer kleinen Firma in Familienbesitz. Aufgrund der Firmengröße war es schwierig, den Mitarbeitern die Bedeutung von Sicherheit nahe zu bringen. Sie wollen die Kennwortrichlinie ändern, sodass Benutzer ihre Kennwörter alle 30 Tage ändern müssen und ein Kennwort zwei Jahre lang nicht erneut verwenden können. Welche der folgenden Optionen sind dazu geeignet?</t>
+  </si>
+  <si>
+    <t>Ein Mitglied der Geschäftsleitung sagt Ihnen, seine Assistentin habe die Firma verlassen. Die Vorgesetzte möchte nun, dass die Nachfolgerin Zugriff auf den Rechner der Vorgängerin und deren Dateien auf dem Dateiserver hat. Wie gehen Sie am besten vor?</t>
+  </si>
+  <si>
+    <t>Which of the following Windows Server 2003 Active Directory user account names is the User Principal Name (UPN)? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>Which of the following Active Directory object names can exist within the same forest (examcram.corp) at the same time? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>What is a suer account's Canonical Name if the LDAP Distingished Name is CN=dan.balter,ou=sales,ou=west,dc=infotech,dc=corp? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>For which of the following user account properties tabs does every property get copied when you create a new user account from a user account template? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>Which of the following statements about object queries in the ADUC console is not correct? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>How can you perfom a bulk import of users into Active Directory to create many user accounts at one time?</t>
+  </si>
+  <si>
+    <t>Which of the following command-line commands can you use to rename an object within Active Directory</t>
+  </si>
+  <si>
+    <t>Which of the following user passwords is acceptable based on the default settings in Active Directory for a user with the logon name of Dan?</t>
+  </si>
+  <si>
+    <t>Which of the following methods can you use to create computer accounts in Active Directory under Windows Server 2003?(Choose three)</t>
+  </si>
+  <si>
+    <t>As an Administrator for the ExamCram.corp domain, how can you run the Active Directory Users and Computers MMC snap-in? (Choose two)</t>
+  </si>
+  <si>
+    <t>What happens if you attempt to run an application program using the Run option as a different user than the user who is currently logged on, but you type in an incorrect user name or password? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>Which of the following commands can perform bulk imports and exports into and out of Active Directory using a file format that is compatible with the Lightweight Directory Access Protocol?</t>
+  </si>
+  <si>
+    <t>You install Active Directory on a server. You want it to be a seperate domain that is part of an existing forest but containing a namespave seperate from the forest where you are installing it. What is this type of domain called?</t>
+  </si>
+  <si>
+    <t>You are installing Active Directory on a new domain controller and selecting options for placing the database and log files. Which of the following options would produce the optimum performance of these files? (Each answer represents part of the solution. Choose two)</t>
+  </si>
+  <si>
+    <t>Which of the following is the most appropriate scenario where you would want to install a read-only domain controller?</t>
+  </si>
+  <si>
+    <t>Peter is a network administrator for a company that operates an Active Directory forest consisting of two domains in separate trees. The company has offices in Chicago and Rome, which are connected by a 236kbps WAN link. Each office is represented by a separate Active Directory site as well as its own domain. Peter's company stores resource location data in Active Directory so that users can perform searches to locate the appropriate resources on their client computers, which run either Windows XP Professional or Windows Vista Business. However, users in the Rome office report that search times for resources are unacceptably slow. Which of the following should Peter do to improve search times at the Rome office?</t>
+  </si>
+  <si>
+    <t>Sharon is the IT manager of a community college whose administrative staff is planning the college's new Windows Server 2016 domain infrastructure. Ten domain controllers will be located in various campus buildings. The college's administrators and technical support staff are to be based in an annex to the computer sciences department that would include a powerful server acting as the forest root domain controller. The administrative staff presented Sharon with a proposal that this server would incorporate the roles of global catalog server, schema master, domain naming master, and infrastructure master. Servers in other buildings would take on the other operations master roles. After studying the proposal carefully, Sharon asks the administrative staff to modify the operations master setup. Which of the following should the staff change?</t>
+  </si>
+  <si>
+    <t>Ryan has installed Windows Server 2016 on a new server using the Server Core option. He would like to install AD DS and promote the server to be a replica domain controller in his company's single domain network. What should he do?</t>
+  </si>
+  <si>
+    <t>Which of the following are valid domain and forest functional levels for a Windows Server 2016 domain? (Choose all that apply.)</t>
+  </si>
+  <si>
+    <t>Karen is the network administrator for a company that operates an Active Directory domain whose domain controllers run Windows Server 2003. The company wants to upgrade the domain controllers to Windows Server 2016. Karen's user account is  member of the Domain Admins, Enterprise Admins, and Schema Admins groups in her company's domain.Which of the following actions does Karen need to perform before upgrading any of the domain controllers to Windows Server 2016? To answer, select the two required actions from the list that follows in the sequence in which she must execute them.</t>
+  </si>
+  <si>
+    <t>Jason is a support technician who is creating user accounts for a series of new employees that your company has hired. After creating several dozen user accounts successfully, he suddenly receives an error message informing him that Active Directory cannot create the account. He comes to you for assistance.</t>
+  </si>
+  <si>
+    <t>Which of the following are default hidden shares under Windows Server 2003? (Choose three.)</t>
+  </si>
+  <si>
+    <t>What does the Shared Folders snap-in provide in terms of setting permissions for a new share that the Sharing tab of a foler's properties sheet does not offer?</t>
+  </si>
+  <si>
+    <t>When both share permissions and NIFS permissions exist on the same shared folder, how is access control to the shared folder affected for users trying to access the files stored in the shared folder over the network?</t>
+  </si>
+  <si>
+    <t>Which of the following characteristics apply to NTFS inherited permissions? (Choose three.)</t>
+  </si>
+  <si>
+    <t>The basic NTFS permission, Modify, when set or a folder, consists of which of the following special permissions? (Choose three.)</t>
+  </si>
+  <si>
+    <t>When you view NTFS effective permissions for a user or a group, which of the following permissions are displayed?</t>
+  </si>
+  <si>
+    <t>In which of the following ways can ownership of an NTFS file or folder change? (Choose three.)</t>
+  </si>
+  <si>
+    <t>Im Rahmen einer Konsolidierungsmaßnahme verschieben Sie eine Reihe freigegebener Ordner auf einen neuen 2003-Server. Nachdem Sie die Ordner samt Dateien per xcopy verschoben haben, nehmen Sie den Server in Produktionsbetrieb. Und schon klingelt Ihr Telefon und Benutzer beschweren sich, dass sie die Freigaben nicht sehen können. Wie beheben Sie dieses Problem?</t>
+  </si>
+  <si>
+    <t>GPOs cannot be linked to which of the following?</t>
+  </si>
+  <si>
+    <t>When you want to make sure that a domain GPO is not overwritten by an organizational unit GPO, what should you do?</t>
+  </si>
+  <si>
+    <t>What permissions must a user have for a GPO to be linked? (Choose two.)</t>
+  </si>
+  <si>
+    <t>If you do not want one user to be affected by a group policy, what can you do?</t>
+  </si>
+  <si>
+    <t>Which of the following can be affected by Group Policies?</t>
+  </si>
+  <si>
+    <t>By default, if a group policy is in conflict with another group policy, what happens?</t>
+  </si>
+  <si>
+    <t>When you set up a group policy to restrict what software can run on a computer, which of the following is not a parameter that can be used to identify the software?</t>
+  </si>
+  <si>
+    <t>If you need to make a folder redirection based on groups, what do you have to do?</t>
+  </si>
+  <si>
+    <t>You want to change the wallpaper to one that includes a company logo. What do you do?</t>
+  </si>
+  <si>
+    <t>If you make a change to the group policy and you want the group policy to go into effect immediately, what do you have to do on a Windows Server 2003?</t>
+  </si>
+  <si>
+    <t>If you want to see all group policies so that you can figure out where certain settings have come into play, what can you do?</t>
+  </si>
+  <si>
+    <t>Which folder is replicated between domain controllers?</t>
+  </si>
+  <si>
+    <t>Where in the group policy settings would you configure computer startup and shutdown scripts?</t>
+  </si>
+  <si>
+    <t>b;c</t>
+  </si>
+  <si>
+    <t>b;e;f</t>
+  </si>
+  <si>
+    <t>b;d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a;c</t>
+  </si>
+  <si>
+    <t>b;c;e</t>
+  </si>
+  <si>
+    <t>c;e</t>
+  </si>
+  <si>
+    <t>b;d;e</t>
+  </si>
+  <si>
+    <t>a;f</t>
+  </si>
+  <si>
+    <t>a;b;d</t>
+  </si>
+  <si>
+    <t>a;b;f</t>
+  </si>
+  <si>
+    <t>b;c;d</t>
+  </si>
+  <si>
+    <t>Net User,gefolgt von dsmove</t>
+  </si>
+  <si>
+    <t>Benutzkonto löschen</t>
+  </si>
+  <si>
+    <t>Benutzer -&gt; universale Gruppe -&gt; globale Gruppen -&gt; lokale Domänengruppen -&gt; Ressourcenberechtigung</t>
+  </si>
+  <si>
+    <t>Active Directory-Benutzerprofil</t>
+  </si>
+  <si>
+    <t>Ihr Benutzerprofil ist beschädigt</t>
+  </si>
+  <si>
+    <t>dsmod</t>
+  </si>
+  <si>
+    <t>Kontosperrungsschwelle auf 0 setzen</t>
+  </si>
+  <si>
+    <t>ihr Benutzerprofil ist beschädigt</t>
+  </si>
+  <si>
+    <t>Ihnen fehlendie entsprechenden Rechte</t>
+  </si>
+  <si>
+    <t>Setzen Sie die Kennwortchronik auf 730 auf das maximale Kennwortalter auf 30</t>
+  </si>
+  <si>
+    <t>Erstellen Sie ein neues Benutzerkonto für die Nachfolgerin und geben Sie ihr Zugriff auf die gewünschten Dateien</t>
+  </si>
+  <si>
+    <t>examcram.corp/music/elton.john</t>
+  </si>
+  <si>
+    <t>CN=DanB stored within the OU named Sales</t>
+  </si>
+  <si>
+    <t>CN=dan.balter</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Query definition can be imported</t>
+  </si>
+  <si>
+    <t>Use the dsadd.exe command</t>
+  </si>
+  <si>
+    <t>Passwords must contain at least seven characters</t>
+  </si>
+  <si>
+    <t>dsadd</t>
+  </si>
+  <si>
+    <t>dan$456</t>
+  </si>
+  <si>
+    <t>Log on to a domain from a Windows 98 computer</t>
+  </si>
+  <si>
+    <t>Double-click the file dsa.mmc in the %systemroot%system32 folder from Windows Explorer</t>
+  </si>
+  <si>
+    <t>The program runs using the security credentials of the currently logged-on user</t>
+  </si>
+  <si>
+    <t>The dsquery.exe command</t>
   </si>
   <si>
     <t>A replica</t>
   </si>
   <si>
+    <t>Placing them on the same NTFS partition</t>
+  </si>
+  <si>
+    <t>In a branch office where physical security might be less than optimum</t>
+  </si>
+  <si>
+    <t>Enable universal group caching at the Rome office.</t>
+  </si>
+  <si>
+    <t>The college's computer help center, which is staffed by students who work parttime shifts and is located in the student union building, needs frequent access to the infrastructure master. The administrative staff should locate this role there.</t>
+  </si>
+  <si>
+    <t>Run Server Manager from the command prompt and select the AD DS role.</t>
+  </si>
+  <si>
+    <t>Windows 2000 mixed</t>
+  </si>
+  <si>
+    <t>Run the Adprep /domainprep command on the PDC emulator.</t>
+  </si>
+  <si>
+    <t>Check the operational status of the infrastructure master.</t>
+  </si>
+  <si>
+    <t>SYSVOL</t>
+  </si>
+  <si>
+    <t>Setting share permissions</t>
+  </si>
+  <si>
+    <t>NTFS permissions take precedence.</t>
+  </si>
+  <si>
+    <t>Special permissions are inherited by default.</t>
+  </si>
+  <si>
+    <t>List Folder/Read Data</t>
+  </si>
+  <si>
+    <t>Basic permissions</t>
+  </si>
+  <si>
+    <t>Any user who is a member of the Domain Users group can take ownership of any folder or file whether or not she has permissions to the folder or file.</t>
+  </si>
+  <si>
+    <t>Allow Full Control NTFS permission</t>
+  </si>
+  <si>
+    <t>Allow Full Control</t>
+  </si>
+  <si>
+    <t>Assign Joe to the Sales group and assign Allow Write NTFS permission to the Sales group.</t>
+  </si>
+  <si>
+    <t>Sie müssen die NTFS-Berechtigungen umkonfigurieren.</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Make sure that the organizational unit GPO is listed before the domain GPO</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Create a new GPO that is assigned to the one user.</t>
+  </si>
+  <si>
+    <t>Windows Me</t>
+  </si>
+  <si>
+    <t>The first group policy stays in effect.</t>
+  </si>
+  <si>
+    <t>Name and date of the executable</t>
+  </si>
+  <si>
+    <t>Configure basic redirection using group policy.</t>
+  </si>
+  <si>
+    <t>Configure an administrative template using group policy.</t>
+  </si>
+  <si>
+    <t>gpresult /Force</t>
+  </si>
+  <si>
+    <t>gpshow</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Client configuration</t>
+  </si>
+  <si>
+    <t>ldifde, gefolgt von dsmod</t>
+  </si>
+  <si>
+    <t>Benutzerkonto in Ehemaliger Mitarbeiter umbennenen</t>
+  </si>
+  <si>
+    <t>Benutzer -&gt; globale Gruppen -&gt; universale Gruppen -&gt; lokale Domänengruppen -&gt; Ressourcenberechtigung</t>
+  </si>
+  <si>
+    <t>Lokales Benutzerprofil</t>
+  </si>
+  <si>
+    <t>Sie hat sich am falschen Computer angemeldet</t>
+  </si>
+  <si>
+    <t>dsadd delete</t>
+  </si>
+  <si>
+    <t>ldifde</t>
+  </si>
+  <si>
+    <t>Kontosperrdauer auf 60 setzen</t>
+  </si>
+  <si>
+    <t>Die Domänenfunktionsebene ist Windows 2000 gemischt</t>
+  </si>
+  <si>
+    <t>Setzen Sie die Kennwortchronik auf 365 auf das maximale Kennwortalter auf 30</t>
+  </si>
+  <si>
+    <t>Bennenen Sie das alte Benutzerkonto für die neue Benutzerin um</t>
+  </si>
+  <si>
+    <t>elton.john.plays.piano.music</t>
+  </si>
+  <si>
+    <t>CN=DanB stored within the OU named Marketing</t>
+  </si>
+  <si>
+    <t>dan.balter@infotech.corp/west/sales</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Query definition can be exported</t>
+  </si>
+  <si>
+    <t>Use the ADUC console</t>
+  </si>
+  <si>
+    <t>Passwords cannot contain all or part of the user's account name</t>
+  </si>
+  <si>
+    <t>dsquery</t>
+  </si>
+  <si>
+    <t>zM!993</t>
+  </si>
+  <si>
+    <t>Join a domain from a Windows NT 4.0 computer</t>
+  </si>
+  <si>
+    <t>Click Start, Run, type aduc.msc, and click OK</t>
+  </si>
+  <si>
+    <t>You see logon failure error message box appear on the screen</t>
+  </si>
+  <si>
+    <t>The dsrm.exe command</t>
+  </si>
+  <si>
     <t>A child domain</t>
   </si>
   <si>
+    <t>Ensuring plenty of hard disk space for these files to expand</t>
+  </si>
+  <si>
+    <t>In the head office near the receptionist's desk</t>
+  </si>
+  <si>
+    <t>Configure a global catalog server at the Rome office</t>
+  </si>
+  <si>
+    <t>The infrastructure master does not need to be located close to the IT staff. A more sensible change would be for the administrative staff to move this role elsewhere and have the PDC emulator located close to the support staff.</t>
+  </si>
+  <si>
+    <t>Run Server Manager from the command prompt and select the dcpromo option</t>
+  </si>
+  <si>
+    <t>Windows 2000 native</t>
+  </si>
+  <si>
+    <t>Run the Adprep /forestprep command on the PDC emulator.</t>
+  </si>
+  <si>
+    <t>Check the operational status of the RID master.</t>
+  </si>
+  <si>
+    <t>Publishing the share in active Directory</t>
+  </si>
+  <si>
+    <t>Share permissions take precedence.</t>
+  </si>
+  <si>
+    <t>Basic permissions are inherited by default.</t>
+  </si>
+  <si>
+    <t>Create Files/Write Data</t>
+  </si>
+  <si>
+    <t>Special permissions</t>
+  </si>
+  <si>
+    <t>The current owner of a file or folder can assign the Take Ownership permission to another user for the file or folder; the other user must then take ownership of the object.</t>
+  </si>
+  <si>
+    <t>Allow Modify NTFS permission</t>
+  </si>
+  <si>
+    <t>Allow Modify</t>
+  </si>
+  <si>
+    <t>Assign Joe to the Executive group and assign the Allow Write NTFS permission to the Executive group.</t>
+  </si>
+  <si>
+    <t>Sie müssen die Freigabeberechtigungen umkonfigurieren.</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Make sure to disable the organizational unit</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Modify the GPO group policy.</t>
+  </si>
+  <si>
+    <t>Windows NT</t>
+  </si>
+  <si>
+    <t>The second GPO overwrites any settings from the first group policy.</t>
+  </si>
+  <si>
+    <t>Path of where the file is located</t>
+  </si>
+  <si>
+    <t>Configure advanced redirection using group policy.</t>
+  </si>
+  <si>
+    <t>Configure an administrative template using the Registry import function.</t>
+  </si>
+  <si>
+    <t>secedit /Update</t>
+  </si>
+  <si>
+    <t>secedit /show</t>
+  </si>
+  <si>
+    <t>User configuration</t>
+  </si>
+  <si>
+    <t>Option Konto ist deaktiviert auswählen</t>
+  </si>
+  <si>
+    <t>Benutzer -&gt; lokale Domänengruppen -&gt; universale Gruppen -&gt; globale Gruppen -&gt; Ressourcenberechtigung</t>
+  </si>
+  <si>
+    <t>Gruppenprofil</t>
+  </si>
+  <si>
+    <t>Sie hat sich lokal angemeldet</t>
+  </si>
+  <si>
+    <t>csvde</t>
+  </si>
+  <si>
+    <t>Kontosperrdauer auf 0 setzen</t>
+  </si>
+  <si>
+    <t>Die Domänenfunktionsebene ist Windows 2000 pur</t>
+  </si>
+  <si>
+    <t>Setzen Sie die Kennwortchronik auf 25 auf das maximale Kennwortalter auf 28</t>
+  </si>
+  <si>
+    <t>Erstellen Sie ein neues Benutzerkonto für die Nachfolgerin und kopiert Sie die gewünschten Dateien in ihrem Basisordner</t>
+  </si>
+  <si>
+    <t>elton.john@examcram.corp</t>
+  </si>
+  <si>
+    <t>CN=DanB,ou=mgmt,dc=examcram,dc=corp</t>
+  </si>
+  <si>
+    <t>Member of</t>
+  </si>
+  <si>
+    <t>You can create folders and subfolders within the Saved Queries container</t>
+  </si>
+  <si>
+    <t>Use the net user command</t>
+  </si>
+  <si>
+    <t>Passwords must contain some nonalphanumeric characters such as %,$,#,!,+ and &amp;</t>
+  </si>
+  <si>
+    <t>dsmove</t>
+  </si>
+  <si>
+    <t>33#abcd</t>
+  </si>
+  <si>
+    <t>Prestage a computer account from ADUC console</t>
+  </si>
+  <si>
+    <t>Double-click the file dsa.msc in the %systemroot%system32 folder from Windows Explorer</t>
+  </si>
+  <si>
+    <t>The Run As option gives you three more chances to type in the correct password before it logs off the current user</t>
+  </si>
+  <si>
+    <t>The net user command</t>
+  </si>
+  <si>
     <t>A forest root</t>
   </si>
   <si>
+    <t>Placing them on NTFS partitions located on seperate physical disks</t>
+  </si>
+  <si>
+    <t>In the server room where the forest root domain is located and you need an optimum location for the schema master and domain naming master</t>
+  </si>
+  <si>
+    <t>Configure a domain controller for the Chicago domain in the Rome office.</t>
+  </si>
+  <si>
+    <t>The schema master and domain naming master roles cannot function properly if they are hosted by the same computer.</t>
+  </si>
+  <si>
+    <t>Execute the dcpromo command from the command prompt and specify the appropriate answers when prompted.</t>
+  </si>
+  <si>
+    <t>Windows Server 2003 mixed</t>
+  </si>
+  <si>
+    <t>Run the Adprep /domainprep command on the infrastructure master.</t>
+  </si>
+  <si>
+    <t>Check the operational status of the PDC emulator.</t>
+  </si>
+  <si>
+    <t>Specifying offline settings</t>
+  </si>
+  <si>
+    <t>The most liberal permissions take precedence.</t>
+  </si>
+  <si>
+    <t>Explicit permissions are the same as inherited permissions.</t>
+  </si>
+  <si>
+    <t>Change Permissions</t>
+  </si>
+  <si>
+    <t>Share permissions</t>
+  </si>
+  <si>
+    <t>A member of the Administrators group can assign ownership of a file or folder to another user.</t>
+  </si>
+  <si>
+    <t>Allow Read NTFS permission</t>
+  </si>
+  <si>
+    <t>Allow Read</t>
+  </si>
+  <si>
+    <t>Assign Joe to the Executive group and assign the Change share permission to the Executive group.</t>
+  </si>
+  <si>
+    <t>Sie müssen den Dienst Server auf dem neuen Server neu starten.</t>
+  </si>
+  <si>
+    <t>First Level Organizational units</t>
+  </si>
+  <si>
+    <t>Make sure that the No Override option is selected for the domain GPO</t>
+  </si>
+  <si>
+    <t>Apply group policy</t>
+  </si>
+  <si>
+    <t>Add the user to the administrators group.</t>
+  </si>
+  <si>
+    <t>Windows XP</t>
+  </si>
+  <si>
+    <t>If the user is an administrator, the first group policy stays in effect.</t>
+  </si>
+  <si>
+    <t>A digital certificate</t>
+  </si>
+  <si>
+    <t>Configure basic redirection using user's profile.</t>
+  </si>
+  <si>
+    <t>Create a login script that copies the logo onto the Registry.</t>
+  </si>
+  <si>
+    <t>gpupdate /Force</t>
+  </si>
+  <si>
+    <t>gpresult</t>
+  </si>
+  <si>
+    <t>Startup configuration</t>
+  </si>
+  <si>
+    <t>csvde,gefolgt von dsmove</t>
+  </si>
+  <si>
+    <t>Wert im Feld Konto läuft ab abändern</t>
+  </si>
+  <si>
+    <t>Benutzer -&gt; universale Gruppen -&gt; Ressourcenberechtigung</t>
+  </si>
+  <si>
+    <t>Gruppenrichtilinienprofil</t>
+  </si>
+  <si>
+    <t>Ihr wurde ein verbindliches Profil zugewiesen</t>
+  </si>
+  <si>
+    <t>dsrm</t>
+  </si>
+  <si>
+    <t>Kontosperrungsschwelle auf 3 setzen</t>
+  </si>
+  <si>
+    <t>Die Domänenfunktionsebene ist nicht Windows 2003 pur</t>
+  </si>
+  <si>
+    <t>Setzen Sie die Kennwortchronik auf 24 auf das maximale Kennwortalter auf 30</t>
+  </si>
+  <si>
+    <t>Sagen Sie der neuen Mitarbeiterin die Benutzererkennung und das Kennwort der ehermaligen Mitarbeiterin</t>
+  </si>
+  <si>
+    <t>CN=elton.john</t>
+  </si>
+  <si>
+    <t>examcram.corp/music/DanB</t>
+  </si>
+  <si>
+    <t>infotech.corp/west/sales/dan.balter</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>You can select the Active Directory container that you would like to search</t>
+  </si>
+  <si>
+    <t>Use the csvde.exe command</t>
+  </si>
+  <si>
+    <t>Passwords may contain numerals 0 through 9</t>
+  </si>
+  <si>
+    <t>ttrrr789021</t>
+  </si>
+  <si>
+    <t>Prestage a computer account using dsget computer command</t>
+  </si>
+  <si>
+    <t>Double-click the file aduc.msc in the %systemroot%system32 folder from Windows Explorer</t>
+  </si>
+  <si>
+    <t>At the Run As dialog box, you must type in the correct username and password for the currently logged-on user if you want to run the program after entering an incorrect username or password</t>
+  </si>
+  <si>
+    <t>The ldifde.exe command</t>
+  </si>
+  <si>
     <t>A tree root</t>
   </si>
   <si>
-    <t>You are installing Active Directory on a new domain controller and selecting
-options for placing the database and log files. Which of the following
-options would produce the optimum performance of these files? (Each
-answer represents part of the solution. Choose two.)</t>
-  </si>
-  <si>
-    <t>b;c</t>
-  </si>
-  <si>
-    <t>Placing them on the same NTFS partition</t>
-  </si>
-  <si>
-    <t>Ensuring plenty of hard disk space for these files to expand</t>
-  </si>
-  <si>
-    <t>Placing them on NTFS partitions located on separate physical disks</t>
-  </si>
-  <si>
     <t>Restricting them to small partitions to control their size</t>
   </si>
   <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>FT</t>
+    <t>In a branch office server room where you need to place the infrastructure master, RID master, and PDC emulator close to clients requiring their services</t>
+  </si>
+  <si>
+    <t>Configure a domain controller for the Rome domain in the Chicago office.</t>
+  </si>
+  <si>
+    <t>The global catalog server and infrastructure master roles cannot function properly if they are hosted by the same computer.</t>
+  </si>
+  <si>
+    <t>Execute the dcpromo command from the command prompt and specify an unattended answer file containing the required information</t>
+  </si>
+  <si>
+    <t>Windows Server 2003 native</t>
+  </si>
+  <si>
+    <t>Run the Adprep /forestprep command on the domain naming master.</t>
+  </si>
+  <si>
+    <t>Check the amount of disk space on the computer Jason is using.</t>
+  </si>
+  <si>
+    <t>Specifying both share permissions and NTFS permissions</t>
+  </si>
+  <si>
+    <t>The most restrictive permissions take precedence.</t>
+  </si>
+  <si>
+    <t>NTFS permissions are inherited by default.</t>
+  </si>
+  <si>
+    <t>Delete Subfolders and Files</t>
+  </si>
+  <si>
+    <t>Not inherited permissions</t>
+  </si>
+  <si>
+    <t>Any user who is granted the Restore Files and Directories user right can assign ownership of a file or folder to another user.</t>
+  </si>
+  <si>
+    <t>No access NTFS permission</t>
+  </si>
+  <si>
+    <t>No access</t>
+  </si>
+  <si>
+    <t>Assign the Full Control share permission to Everyone.</t>
+  </si>
+  <si>
+    <t>Sie müssen die Freigaben erneut freigeben.</t>
+  </si>
+  <si>
+    <t>Second Level Organizational Units</t>
+  </si>
+  <si>
+    <t>Enable block inheritance at the organizational unit</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Modify the GPO permissions so that the user is denied the Apply Group Policy permission to the GPO.</t>
+  </si>
+  <si>
+    <t>Windows 98</t>
+  </si>
+  <si>
+    <t>The domain level group policy stays in effect.</t>
+  </si>
+  <si>
+    <t>A hash value</t>
+  </si>
+  <si>
+    <t>Configure advanced redirection using user's profile.</t>
+  </si>
+  <si>
+    <t>Modify the Boot.ini file to point to the new company logo.</t>
+  </si>
+  <si>
+    <t>gpupdate / Sync</t>
+  </si>
+  <si>
+    <t>gpdupate /showall</t>
+  </si>
+  <si>
+    <t>computer configuration</t>
+  </si>
+  <si>
+    <t>dsquery,gefolgt von dsmod</t>
+  </si>
+  <si>
+    <t>Servergespeichertes Benutzerprofil</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>infotech.corp/sales/west/dan.balter</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>You can save query definitions as HTML files</t>
+  </si>
+  <si>
+    <t>Use the dsmod.exe command</t>
+  </si>
+  <si>
+    <t>Passwords may contain English lowercase letters a through z</t>
+  </si>
+  <si>
+    <t>dsget</t>
+  </si>
+  <si>
+    <t>Prestage a computer account using the dsadd computer command</t>
+  </si>
+  <si>
+    <t>Click Start, Run, type mmc, and click OK. Click File, Add/Remove Snap-in, select Active Directory Users and Computers from the list of available snap-ins, click Add, and then click OK</t>
+  </si>
+  <si>
+    <t>The notepad.exe utility</t>
+  </si>
+  <si>
+    <t>Windows Server 2008 native</t>
+  </si>
+  <si>
+    <t>Run the Adprep /domainprep command on the schema master.</t>
+  </si>
+  <si>
+    <t>Specifying Web Sharing access permission</t>
+  </si>
+  <si>
+    <t>NTFS explicit permissions are not inherited by default.</t>
+  </si>
+  <si>
+    <t>Take Ownership</t>
+  </si>
+  <si>
+    <t>Any member of the Backup Operators group can take ownership of any file or folder at any time.</t>
+  </si>
+  <si>
+    <t>Sie müssen den Freigaben eindeutige Namen geben.</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>A zone defined within Internet Explorer</t>
+  </si>
+  <si>
+    <t>1.2.6.1</t>
+  </si>
+  <si>
+    <t>1.2.6.2</t>
+  </si>
+  <si>
+    <t>1.2.6.3</t>
+  </si>
+  <si>
+    <t>1.2.6.4</t>
+  </si>
+  <si>
+    <t>1.2.6.5</t>
+  </si>
+  <si>
+    <t>1.2.6.6</t>
+  </si>
+  <si>
+    <t>1.2.6.7</t>
+  </si>
+  <si>
+    <t>1.2.6.8</t>
+  </si>
+  <si>
+    <t>Run the Adprep /forestprep command on the schema master.</t>
+  </si>
+  <si>
+    <t>1.2.6.9</t>
+  </si>
+  <si>
+    <t>Sie wollen ein Benutzerkonto für Andrea Bayer von der Kommandozeile aus erstellen. Das Konto soll Mitglied der Techniker-Gruppe im Mannheim-Container sein. Es soll nach der Erstellung deativiert sein, sein Kennwort soll Sicherheit lauten und es soll sich im Container "ou=Benutzer,ou=Mannheim,dc=beispiel,dc=local" befinden. Welche der folgenden Tools bzw Kombination von Tools können dies bewerkstelligen?</t>
+  </si>
+  <si>
+    <t>2.7.1.0</t>
+  </si>
+  <si>
+    <t>2.7.2.0</t>
+  </si>
+  <si>
+    <t>2.7.3.0</t>
+  </si>
+  <si>
+    <t>Verbindliches Benutzerprofil</t>
+  </si>
+  <si>
+    <t>2.7.4.0</t>
+  </si>
+  <si>
+    <t>2.7.5.0</t>
+  </si>
+  <si>
+    <t>2.7.6.0</t>
+  </si>
+  <si>
+    <t>2.7.7.0</t>
+  </si>
+  <si>
+    <t>2.7.8.0</t>
+  </si>
+  <si>
+    <t>2.7.9.0</t>
+  </si>
+  <si>
+    <t>2.7.10.0</t>
+  </si>
+  <si>
+    <t>2.7.11.0</t>
+  </si>
+  <si>
+    <t>2.7.12.0</t>
+  </si>
+  <si>
+    <t>2.8.1.0</t>
+  </si>
+  <si>
+    <t>All of these</t>
+  </si>
+  <si>
+    <t>2.8.2.0</t>
+  </si>
+  <si>
+    <t>infotech.corp\dan.balter</t>
+  </si>
+  <si>
+    <t>dan.balter/sales/west/infotech.corp</t>
+  </si>
+  <si>
+    <t>2.8.3.0</t>
+  </si>
+  <si>
+    <t>2.8.4.0</t>
+  </si>
+  <si>
+    <t>You can choose not to search subcontainers</t>
+  </si>
+  <si>
+    <t>2.8.5.0</t>
+  </si>
+  <si>
+    <t>Where is the Group Policy setting "Interactive Logon: Number of Previous Logons to Cache (in Case Domain Controller Is Not Available)" located within the Default Domain Security Settings console and what is this setting's default value? (Choose the best answer)</t>
+  </si>
+  <si>
+    <t>It's located under Security Settings\Local Poicies\Security Options, and its default value is 50</t>
+  </si>
+  <si>
+    <t>It's located under Security Settings\Local Poicies\Security Options, and its default value is 5</t>
+  </si>
+  <si>
+    <t>It's located under Security Settings\Local Poicies\User Rights Assignment, and its default value is 10</t>
+  </si>
+  <si>
+    <t>It's located under Security Settings\Local Poicies\User Rights Assignment, and its default value is 50</t>
+  </si>
+  <si>
+    <t>It's located under Security Settings\Local Poicies\Security Options, and its default value is 10</t>
+  </si>
+  <si>
+    <t>2.8.6.0</t>
+  </si>
+  <si>
+    <t>2.8.7.0</t>
+  </si>
+  <si>
+    <t>Which of the following requirements do not apply to the default domain security policy setting "Passowrd Must Meet Complexity Requirements" for Active Directory user accounts under Windows Server 2003? (Choose two)</t>
+  </si>
+  <si>
+    <t>Passworts may contain Englisch uppercase letters A through Z</t>
+  </si>
+  <si>
+    <t>2.8.8.0</t>
+  </si>
+  <si>
+    <t>net user</t>
+  </si>
+  <si>
+    <t>2.8.9.0</t>
+  </si>
+  <si>
+    <t>2.8.10.0</t>
+  </si>
+  <si>
+    <t>Join a domain from a Windows 95 computer with the Active Directory client software installed</t>
+  </si>
+  <si>
+    <t>2.8.2.44</t>
+  </si>
+  <si>
+    <t>2.8.4.45</t>
+  </si>
+  <si>
+    <t>2.8.4.46</t>
+  </si>
+  <si>
+    <t>2.8.8.47</t>
+  </si>
+  <si>
+    <t>2.8.10.48</t>
+  </si>
+  <si>
+    <t>While remaining logged on at the console to a Windows Server 2003 computer as Joe User, how can you successfully run the following applets and programs as the domain administrator? (Choose two)</t>
+  </si>
+  <si>
+    <t>In Control Panel, right-click the Network Connections icon and selct Run As. Select the option button for The Following User, type domain_name\administrator in the Username box, type the proper password in the Password box, and click OK</t>
+  </si>
+  <si>
+    <t>Click Start and point to All Programs, right-click the Internet Explorer icon and select Run As. Selct the option button for The Following User, type domain_name\administrator in the Username box, type the proper password in the Password box, and click OK</t>
+  </si>
+  <si>
+    <t>In Control Panel, hold down the Shift key, right-click the Printers and Faxes icon and selct Run As. Select the option button for The Following User, type domain_name\administrator in the Username box, type the proper password in the Password box, and click OK</t>
+  </si>
+  <si>
+    <t>In Control Panel, hold down the Shift key, right-click the Display icon and select Run As. Select the option button for The Following User, type domain_name\administrator in the Username box, type the proper password in the Password box, and click OK</t>
+  </si>
+  <si>
+    <t>Click Start and point to All Programs, Administartive Tools, and click Active Directory Users and Computers. When prompted, selct the option button for The Following User, type domain_name\administrator in the Username box, type the proper password in the Password box, and click OK</t>
+  </si>
+  <si>
+    <t>3.3.1.0</t>
+  </si>
+  <si>
+    <t>ADMIN$</t>
+  </si>
+  <si>
+    <t>CD$</t>
+  </si>
+  <si>
+    <t>PRINTER$</t>
+  </si>
+  <si>
+    <t>IPC$</t>
+  </si>
+  <si>
+    <t>C$</t>
+  </si>
+  <si>
+    <t>3.3.2.0</t>
+  </si>
+  <si>
+    <t>3.3.3.0</t>
+  </si>
+  <si>
+    <t>3.3.4.0</t>
+  </si>
+  <si>
+    <t>You cannot set explicit permissions on files.</t>
+  </si>
+  <si>
+    <t>3.3.5.0</t>
+  </si>
+  <si>
+    <t>Write Extended Attributes</t>
+  </si>
+  <si>
+    <t>3.3.6.0</t>
+  </si>
+  <si>
+    <t>3.3.7.0</t>
+  </si>
+  <si>
+    <t>Any member of the Authenticated Users group can assign ownership of files or folders to another user at any time.</t>
+  </si>
+  <si>
+    <t>3.3.8.0</t>
+  </si>
+  <si>
+    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has no NTFS permissions assigned. Group1 has Allow Read NTES permission, and Group2 has Allow Modify NTFS permission. What permission does User1 have for the APP1 folder?</t>
+  </si>
+  <si>
+    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has Allow Full Control NTES permission, and Group2 has Allow Modify NTES permission. Group1 has Deny Full Control NTFS permission. What permission does User1 have for the APP1 folder?</t>
+  </si>
+  <si>
+    <t>3.3.9.0</t>
+  </si>
+  <si>
+    <t>3.3.10.0</t>
+  </si>
+  <si>
+    <t>On a Windows Server 2003 computer, you have a shared folder called DATA1. You apply the default share permissions and NTFS permissions to DATA1. You then create a folder called DATA2 in DATA1. You apply the default NTFS permissions to DATA2. When GROUP1 tries to add files to DATA2, they get an "Acess is denied" error message. What do you need to do so that GROUP1 can create, modify and delete files in DATA1 and DATA2? All other users must be able to read the files in DATA1 and DATA2.</t>
+  </si>
+  <si>
+    <t>For the DATA1 folder, assign the Change share permission to the Everyone group. For the DATA2 folder, assign the Allow Write NTFS permission for GROUP1 group.</t>
+  </si>
+  <si>
+    <t>For the DATA1 folder, assign the Change share permission to the GROUP1 group and assign the Allow Write NTFS permission to the GROUP1 group</t>
+  </si>
+  <si>
+    <t>For the DATA1 folder, assign the Change share permissions to the GROUP1 and assignthe Allow Modify NTFS permissions to the GROUP1 group.</t>
+  </si>
+  <si>
+    <t>For the DATA1 folder, assign the Change share permission to the Everyone group and assign the Allow Modify NTFS permissions to the GROUP1 group.</t>
+  </si>
+  <si>
+    <t>On a Windows Server 2003 computer, you have a shared folder called APP1. At this time, Joe does not belong to the Sales, Marketing, or Executive group. You set the NTFS and APP1 as shown in the following table: HERE SHOULD BE A TABLE (lern die Frage einfach auswendig) \n You want Joe to be able to make changes to the files in the APPI folder. What should you do?</t>
+  </si>
+  <si>
+    <t>3.3.11.0</t>
+  </si>
+  <si>
+    <t>3.4.1.0</t>
+  </si>
+  <si>
+    <t>3.4.2.0</t>
+  </si>
+  <si>
+    <t>3.4.3.0</t>
+  </si>
+  <si>
+    <t>3.4.4.0</t>
+  </si>
+  <si>
+    <t>3.4.6.0</t>
+  </si>
+  <si>
+    <t>3.4.11.0</t>
+  </si>
+  <si>
+    <t>3.4.12.0</t>
+  </si>
+  <si>
+    <t>3.4.13.0</t>
+  </si>
+  <si>
+    <t>3.4.14.0</t>
+  </si>
+  <si>
+    <t>3.4.15.0</t>
+  </si>
+  <si>
+    <t>4.6.1.0</t>
+  </si>
+  <si>
+    <t>4.6.2.0</t>
+  </si>
+  <si>
+    <t>4.6.3.0</t>
+  </si>
+  <si>
+    <t>4.6.4.0</t>
+  </si>
+  <si>
+    <t>4.6.5.0</t>
+  </si>
+  <si>
+    <t>4.6.6.0</t>
+  </si>
+  <si>
+    <t>2.6.4.31</t>
+  </si>
+  <si>
+    <t>Windows\System32</t>
+  </si>
+  <si>
+    <t>Windows\System</t>
+  </si>
+  <si>
+    <t>Die Assistent des Geschäftsführers kündigt fristlos. In den persönlichen Ordnern der Assistentin gibt es mehrere Dateien, auf die der Geschäftsführer zugreifen muss. Die Ordner haben die folgende Berechtigung:
+AssistentinGeschf: Vollzugriff
+Alle ihre Ordner befinden sich auf einem Server, der mit NTFS formatiert ist. Wie geben Sie dem Geschäftsfüher am schnellsten Zugriff auf diese Dateien?</t>
+  </si>
+  <si>
+    <t>Setzen Sie das Kennwort der Assistentin zurückl. Geben Sie dem Geschäftsführer die Bentzerkennung und das neue Kennwort</t>
+  </si>
+  <si>
+    <t>Übertragen Sie die Besitzrechte der Ordner an den Geschäftsführer</t>
+  </si>
+  <si>
+    <t>Übertragen Sie die Besitzrechte der Ordner und geben Sie dem Geschäftsführer Vollzugriff</t>
+  </si>
+  <si>
+    <t>Verschieben Sie die Dateien in die Ordner des Geschäftsführers.</t>
+  </si>
+  <si>
+    <t>Fragenummer</t>
   </si>
 </sst>
 </file>
@@ -150,12 +1330,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -196,16 +1388,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,171 +1706,1843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="191.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>32</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" t="s">
+        <v>327</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>351</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" t="s">
+        <v>355</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" t="s">
+        <v>360</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" t="s">
+        <v>303</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" t="s">
+        <v>374</v>
+      </c>
+      <c r="G37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I37" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>270</v>
+      </c>
+      <c r="H38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" t="s">
+        <v>307</v>
+      </c>
+      <c r="I40" t="s">
+        <v>381</v>
+      </c>
+      <c r="K40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G41" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" t="s">
+        <v>308</v>
+      </c>
+      <c r="I41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>223</v>
+      </c>
+      <c r="G44" t="s">
+        <v>276</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" t="s">
+        <v>278</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" t="s">
+        <v>311</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" t="s">
+        <v>281</v>
+      </c>
+      <c r="K49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" t="s">
+        <v>282</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" t="s">
+        <v>283</v>
+      </c>
+      <c r="K51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" t="s">
+        <v>284</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" t="s">
+        <v>285</v>
+      </c>
+      <c r="K53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" t="s">
+        <v>286</v>
+      </c>
+      <c r="H54" t="s">
+        <v>312</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55" t="s">
+        <v>287</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" t="s">
+        <v>288</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57" t="s">
+        <v>289</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>185</v>
+      </c>
+      <c r="F58" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" t="s">
+        <v>290</v>
+      </c>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" t="s">
+        <v>416</v>
+      </c>
+      <c r="F59" t="s">
+        <v>417</v>
+      </c>
+      <c r="G59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" t="s">
+        <v>291</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" t="s">
+        <v>371</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>393</v>
+      </c>
+      <c r="E62" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" t="s">
+        <v>396</v>
+      </c>
+      <c r="G62" t="s">
+        <v>395</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>419</v>
+      </c>
+      <c r="E63" t="s">
+        <v>420</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="K67" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="K70" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E438051-BE0B-4292-9001-96C4E4B5D0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB397CD7-DD6E-4221-B209-AF4518DC39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="429">
   <si>
     <t>type</t>
   </si>
@@ -1253,9 +1253,6 @@
     <t>3.4.12.0</t>
   </si>
   <si>
-    <t>3.4.13.0</t>
-  </si>
-  <si>
     <t>3.4.14.0</t>
   </si>
   <si>
@@ -1289,24 +1286,42 @@
     <t>Windows\System</t>
   </si>
   <si>
-    <t>Die Assistent des Geschäftsführers kündigt fristlos. In den persönlichen Ordnern der Assistentin gibt es mehrere Dateien, auf die der Geschäftsführer zugreifen muss. Die Ordner haben die folgende Berechtigung:
-AssistentinGeschf: Vollzugriff
+    <t>Setzen Sie das Kennwort der Assistentin zurückl. Geben Sie dem Geschäftsführer die Bentzerkennung und das neue Kennwort</t>
+  </si>
+  <si>
+    <t>Übertragen Sie die Besitzrechte der Ordner an den Geschäftsführer</t>
+  </si>
+  <si>
+    <t>Übertragen Sie die Besitzrechte der Ordner und geben Sie dem Geschäftsführer Vollzugriff</t>
+  </si>
+  <si>
+    <t>Verschieben Sie die Dateien in die Ordner des Geschäftsführers.</t>
+  </si>
+  <si>
+    <t>Fragenummer</t>
+  </si>
+  <si>
+    <t>Die Assistent des Geschäftsführers kündigt fristlos. In den persönlichen Ordnern der Assistentin gibt es mehrere Dateien, auf die der Geschäftsführer zugreifen muss. Die Ordner haben die folgende Berechtigung: 
+AssistentinGeschf: Vollzugriff 
 Alle ihre Ordner befinden sich auf einem Server, der mit NTFS formatiert ist. Wie geben Sie dem Geschäftsfüher am schnellsten Zugriff auf diese Dateien?</t>
   </si>
   <si>
-    <t>Setzen Sie das Kennwort der Assistentin zurückl. Geben Sie dem Geschäftsführer die Bentzerkennung und das neue Kennwort</t>
-  </si>
-  <si>
-    <t>Übertragen Sie die Besitzrechte der Ordner an den Geschäftsführer</t>
-  </si>
-  <si>
-    <t>Übertragen Sie die Besitzrechte der Ordner und geben Sie dem Geschäftsführer Vollzugriff</t>
-  </si>
-  <si>
-    <t>Verschieben Sie die Dateien in die Ordner des Geschäftsführers.</t>
-  </si>
-  <si>
-    <t>Fragenummer</t>
+    <t>Der Ordner Verträge hat die folgenden Berechtigungen: Freigabeberechtigung: Geschäftsführung: Vollzugriff; Rechtsabteilung: Ändern; Personalabteilung: Lesen; - NTFS Berechtigungen: gleich wie Freigabeberechtungung :) -  Angenommen, Bernd ist Mitglied der Rechtsabteilung und der Personalabteilung. Wie lautet dann seine effektive Berechtigung über das Netzwerk?</t>
+  </si>
+  <si>
+    <t>Ändern (Freigabeberechtigung)</t>
+  </si>
+  <si>
+    <t>Ändern (NTFS-Berechtigung</t>
+  </si>
+  <si>
+    <t>Lesen</t>
+  </si>
+  <si>
+    <t>Vollzugriff</t>
+  </si>
+  <si>
+    <t>3.4.10.0</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1399,7 +1414,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1709,7 +1725,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2204,7 +2220,7 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
@@ -2445,7 +2461,7 @@
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
@@ -3081,7 +3097,7 @@
         <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,7 +3123,7 @@
         <v>281</v>
       </c>
       <c r="K49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3133,7 +3149,7 @@
         <v>282</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3159,7 +3175,7 @@
         <v>283</v>
       </c>
       <c r="K51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,7 +3201,7 @@
         <v>284</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3211,7 +3227,7 @@
         <v>285</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3299,11 +3315,11 @@
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -3318,7 +3334,7 @@
         <v>289</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3361,10 +3377,10 @@
         <v>130</v>
       </c>
       <c r="E59" t="s">
+        <v>415</v>
+      </c>
+      <c r="F59" t="s">
         <v>416</v>
-      </c>
-      <c r="F59" t="s">
-        <v>417</v>
       </c>
       <c r="G59" t="s">
         <v>108</v>
@@ -3403,7 +3419,7 @@
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C61" t="s">
@@ -3454,51 +3470,70 @@
         <v>391</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>418</v>
+      <c r="B63" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
+        <v>417</v>
+      </c>
+      <c r="E63" t="s">
+        <v>418</v>
+      </c>
+      <c r="F63" t="s">
         <v>419</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>420</v>
-      </c>
-      <c r="F63" t="s">
-        <v>421</v>
-      </c>
-      <c r="G63" t="s">
-        <v>422</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>424</v>
+      </c>
+      <c r="E64" t="s">
+        <v>425</v>
+      </c>
+      <c r="F64" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" t="s">
+        <v>427</v>
+      </c>
       <c r="K64" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">

--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB397CD7-DD6E-4221-B209-AF4518DC39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DB83A-9686-4F29-920B-B908ED102300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="445">
   <si>
     <t>type</t>
   </si>
@@ -1197,12 +1197,6 @@
   </si>
   <si>
     <t>3.3.8.0</t>
-  </si>
-  <si>
-    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has no NTFS permissions assigned. Group1 has Allow Read NTES permission, and Group2 has Allow Modify NTFS permission. What permission does User1 have for the APP1 folder?</t>
-  </si>
-  <si>
-    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has Allow Full Control NTES permission, and Group2 has Allow Modify NTES permission. Group1 has Deny Full Control NTFS permission. What permission does User1 have for the APP1 folder?</t>
   </si>
   <si>
     <t>3.3.9.0</t>
@@ -1321,7 +1315,61 @@
     <t>Vollzugriff</t>
   </si>
   <si>
-    <t>3.4.10.0</t>
+    <t>Sie sind Adminstrator eines kleinen Netzwerks. Die Personalchefin ist extrem sicherheitsbewusst. Sie möchte, dass Sie eine Freigabe einrichten, auf die Benutzer keinen Zugriff haben und die sie nicht einmal sehen können. Allerdings sollen bestimmte Benutzer aus der Personalabteilung schnell und einfach Zugang haben.  -  Zu erzielendes Ergebnis:  Legen Sie eine abgesicherte Freigabe für die Personalabteilung an.  -  Zusätzliche, wünschenswerte Ergebnisse:  Benutzer sollen die darin enthaltenen Dateinen nicht sehen können. Bestimmte Benutzer aus der Personalabteilung sollen schnell und einfach Zugang haben.  -  Vorgeschlagene Lösung:  Erstellen Sie eine Freigabe namens PersonalAbgesichert$. Legen Sie die Freigabeberechtigungen so fest, dass die bestimmten Benutzer Vollzugriff erhalten. Es werden keinerlie sonstige Berechtigungen für irgendwelche Benutzer oder Gruppen vergeben.  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Die vorgeschlagene Lösung bewirkt das zu erzielende Ergenis, aber keines der beiden wünschenswerten Ergebnisse.</t>
+  </si>
+  <si>
+    <t>Die vorgeschlagene Lösung bewirkt das zu erzielende Ergebnis und eines der beiden wünschenwerten Ergebnisse.</t>
+  </si>
+  <si>
+    <t>Die vorgeschlagene Lösung bewirkt das zu erzielene Ergebnis und beide wünschenswerte Ergebnisse.</t>
+  </si>
+  <si>
+    <t>Die vorgeschlagene Lösung bewirkt nicht das zu erzielende Ergebnis.</t>
+  </si>
+  <si>
+    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has Allow Full Control NTFS permission, and Group2 has Allow Modify NTFS permission. Group1 has Deny Full Control NTFS permission. What permission does User1 have for the APP1 folder?</t>
+  </si>
+  <si>
+    <t>You have an APP1 folder on a Windows Server 2003 computer. User1 belongs to Group1 and Group2. User1 has no NTFS permissions assigned. Group1 has Allow Read NTFS permission, and Group2 has Allow Modify NTFS permission. What permission does User1 have for the APP1 folder?</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines 2003-Servers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Lesen   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei der NTFS-Berechtigungen des Ordners Dokumente und alle Unterordner Vollzugriff  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines Windows Server 2003-Computers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Lesen   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei den Berechtigungen des Ordners Dokumente die Berechtigung Ändern  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines Windows Server 2003-Computers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Vollzugriff Verweigern   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei den Berechtigungen des Ordners Dokumente die Berechtigung Ändern  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines kleinen Sportartikelherstellers.Der Personalchef Ihrer Firma hat einige Dateien in einer Freigabe Personaldaten auf einem 2003-Server erstllt.. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Freigabeberechtigungen von Personaldaten:  Benutzer: Lesen   Administrator: Vollzugriff   PersonalabteilungLeiter: Vollzugriff  -  NTFS-Berechtigungen von Personaldaten:  Benutzer: Lesen  Administrator: Lesen  PersonalabteilungLeiter: Vollzugriff  -  Während der Personalchef im Urlaub ist, werden Sie von einem Benutzer angerufen. Anscheinend befinden sich in einer Datei des Ordners Personaldaten sehr vertrauliche Daten und sie sollte entfernt werden. Wie können Sie dies tun, ohne den normalen Betrieb zu stören? Verwend Sie möglichst wenig Autorität, um die Datei zu löschen!</t>
+  </si>
+  <si>
+    <t>Geben Sie sich selbst vollzugriff für den Ordner Personaldaten. Löschen Sie die Datei. Entfernen Sie die Vollzugriffs-Berechtigung auf dem Ordner Personaldaten.</t>
+  </si>
+  <si>
+    <t>Ziehen Sie die Besitzrechte des Ordners Personaldaten an sich. Wenn die Nachfrage erscheint, übernehmen Sie auch die Besitzrechte an den vorhandenen Dateien. Geben Sie sich Vollzugriff für die Datei und löschen Sie sie.</t>
+  </si>
+  <si>
+    <t>Übernehemn Sie die Besitzrechte an der Datei. Geben Sie sich die Berechtigung Ändern für die Datei. Löschen Sie sie.</t>
+  </si>
+  <si>
+    <t>Geben Sie sich selbst die Berechtigung Ändern für den Ordner Personaldaten und seinen Inhalt. Löschen Sie die Datei. Entfernen Sie die Ändern-Berchtigung für den Ordner Personaldaten.</t>
+  </si>
+  <si>
+    <t>3.4.13.0</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines kleinen Netzwerks. Die Datenpartitionen Ihres Fileservers sind mit FAT32 formatiert. Der Chef der Lohnbuchhaltung will eine Freigabe einrichten, in der Bentzer ihre Arbeitszeitnachweise einsehn können.  -  Zu erzielendes Ergebnis:  Die Mitarbeiter sollen ihre Arbeitszeitnachweise in einer gemeinsamen Freigabe einsehen können  -  Zusätzliche, wünschenswerte Ergebnisse:  Die Mitarbeiter sollen die Arbeitzeitnachweise nicht verändern können. Die Mitarbeiter sollen nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Erstellen Sie eine Freigabe auf dem Fileserver und akzeptieren Sie die Vorgaben.  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Sie sind Adminstrator eines kleinen Netzwerks. Die Personalchefin ist extrem sicherheitsbewusst. Sie möchte, dass Sie eine Freigabe einrichten, auf die Benutzer keinen Zugriff haben und die sie nicht einmal sehen können. Allerdings sollen bestimmte Benutzer aus der Personalabteilung schnell und einfach Zugang haben.  -  Zu erzielendes Ergebnis:  Legen Sie eine Freigabe für die Personalabteilung an.  -  Zusätzliche, wünschenswerte Ergebnisse:  Benutzer sollen die darin enthaltenen Dateinen nicht sehen können. Bestimmte Benutzer aus der Personalabteilung sollen schnell und einfach Zugang haben.  -  Vorgeschlagene Lösung:  Erstellen Sie eine Freigabe namens PersonalAbgesichert. Legen Sie die Freigabeberechtigungen so fest, dass die bestimmten Benutzer Vollzugriff erhalten. Es werden keinerlie sonstige Berechtigungen für irgendwelche Benutzer oder Gruppen vergeben.  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1414,8 +1462,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2220,7 +2267,7 @@
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
@@ -2461,7 +2508,7 @@
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
@@ -2969,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -2995,7 +3042,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -3013,7 +3060,7 @@
         <v>277</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3021,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -3039,7 +3086,7 @@
         <v>278</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3068,7 +3115,7 @@
         <v>310</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3097,7 +3144,7 @@
         <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3123,7 +3170,7 @@
         <v>281</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3149,7 +3196,7 @@
         <v>282</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,7 +3222,7 @@
         <v>283</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,7 +3248,7 @@
         <v>284</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3227,7 +3274,7 @@
         <v>285</v>
       </c>
       <c r="K53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3315,7 +3362,7 @@
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
@@ -3334,7 +3381,7 @@
         <v>289</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3377,10 +3424,10 @@
         <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G59" t="s">
         <v>108</v>
@@ -3419,7 +3466,7 @@
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>366</v>
       </c>
       <c r="C61" t="s">
@@ -3449,51 +3496,51 @@
         <v>9</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
+        <v>391</v>
+      </c>
+      <c r="E62" t="s">
+        <v>392</v>
+      </c>
+      <c r="F62" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" t="s">
         <v>393</v>
       </c>
-      <c r="E62" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" t="s">
-        <v>396</v>
-      </c>
-      <c r="G62" t="s">
-        <v>395</v>
-      </c>
       <c r="K62" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>422</v>
+      <c r="B63" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
+        <v>415</v>
+      </c>
+      <c r="E63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63" t="s">
         <v>417</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>418</v>
       </c>
-      <c r="F63" t="s">
-        <v>419</v>
-      </c>
-      <c r="G63" t="s">
-        <v>420</v>
-      </c>
       <c r="K63" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3501,80 +3548,213 @@
         <v>9</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
       </c>
       <c r="D64" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" t="s">
         <v>424</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>425</v>
       </c>
-      <c r="F64" t="s">
+      <c r="K64" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G64" t="s">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
         <v>427</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="E65" t="s">
+        <v>428</v>
+      </c>
+      <c r="F65" t="s">
+        <v>429</v>
+      </c>
+      <c r="G65" t="s">
+        <v>430</v>
+      </c>
       <c r="K65" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" t="s">
+        <v>428</v>
+      </c>
+      <c r="F66" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" t="s">
+        <v>430</v>
+      </c>
       <c r="K66" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>427</v>
+      </c>
+      <c r="E67" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="F67" t="s">
+        <v>429</v>
+      </c>
+      <c r="G67" t="s">
+        <v>430</v>
+      </c>
       <c r="K67" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>427</v>
+      </c>
+      <c r="E68" t="s">
+        <v>428</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>430</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>427</v>
+      </c>
+      <c r="E69" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G69" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="K68" s="4" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>438</v>
+      </c>
+      <c r="E70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" t="s">
+        <v>440</v>
+      </c>
+      <c r="G70" t="s">
+        <v>441</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="K69" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="K70" s="4" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>427</v>
+      </c>
+      <c r="E71" t="s">
+        <v>428</v>
+      </c>
+      <c r="F71" t="s">
+        <v>429</v>
+      </c>
+      <c r="G71" t="s">
+        <v>430</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="K71" s="4"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="K72" s="4" t="s">
-        <v>404</v>
-      </c>
+      <c r="K72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albinothajrizaj/Desktop/Hochschule_Kempten/7_Semester/Rechnernetze/Rechnernetze-Quiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DB83A-9686-4F29-920B-B908ED102300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA33A3-F317-584F-B72B-50CB9CF3ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="444">
   <si>
     <t>type</t>
   </si>
@@ -1343,9 +1343,6 @@
   </si>
   <si>
     <t>Sie sind Adminstrator eines Windows Server 2003-Computers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Vollzugriff Verweigern   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei den Berechtigungen des Ordners Dokumente die Berechtigung Ändern  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
-  </si>
-  <si>
-    <t>Mc</t>
   </si>
   <si>
     <t>Sie sind Adminstrator eines kleinen Sportartikelherstellers.Der Personalchef Ihrer Firma hat einige Dateien in einer Freigabe Personaldaten auf einem 2003-Server erstllt.. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Freigabeberechtigungen von Personaldaten:  Benutzer: Lesen   Administrator: Vollzugriff   PersonalabteilungLeiter: Vollzugriff  -  NTFS-Berechtigungen von Personaldaten:  Benutzer: Lesen  Administrator: Lesen  PersonalabteilungLeiter: Vollzugriff  -  Während der Personalchef im Urlaub ist, werden Sie von einem Benutzer angerufen. Anscheinend befinden sich in einer Datei des Ordners Personaldaten sehr vertrauliche Daten und sie sollte entfernt werden. Wie können Sie dies tun, ohne den normalen Betrieb zu stören? Verwend Sie möglichst wenig Autorität, um die Datei zu löschen!</t>
@@ -1771,24 +1768,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="191.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="180.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="154.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="143.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="191.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2011,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2382,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2414,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2556,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2634,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2860,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3060,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3595,12 +3592,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3618,10 +3615,10 @@
         <v>430</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -3647,7 +3644,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3673,9 +3670,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>435</v>
@@ -3699,38 +3696,38 @@
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" t="s">
         <v>438</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>439</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>440</v>
-      </c>
-      <c r="G70" t="s">
-        <v>441</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3751,7 +3748,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="K72" s="4"/>

--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albinothajrizaj/Desktop/Hochschule_Kempten/7_Semester/Rechnernetze/Rechnernetze-Quiz/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDA33A3-F317-584F-B72B-50CB9CF3ECCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DB83A-9686-4F29-920B-B908ED102300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="445">
   <si>
     <t>type</t>
   </si>
@@ -1343,6 +1343,9 @@
   </si>
   <si>
     <t>Sie sind Adminstrator eines Windows Server 2003-Computers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Vollzugriff Verweigern   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei den Berechtigungen des Ordners Dokumente die Berechtigung Ändern  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
+  </si>
+  <si>
+    <t>Mc</t>
   </si>
   <si>
     <t>Sie sind Adminstrator eines kleinen Sportartikelherstellers.Der Personalchef Ihrer Firma hat einige Dateien in einer Freigabe Personaldaten auf einem 2003-Server erstllt.. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Freigabeberechtigungen von Personaldaten:  Benutzer: Lesen   Administrator: Vollzugriff   PersonalabteilungLeiter: Vollzugriff  -  NTFS-Berechtigungen von Personaldaten:  Benutzer: Lesen  Administrator: Lesen  PersonalabteilungLeiter: Vollzugriff  -  Während der Personalchef im Urlaub ist, werden Sie von einem Benutzer angerufen. Anscheinend befinden sich in einer Datei des Ordners Personaldaten sehr vertrauliche Daten und sie sollte entfernt werden. Wie können Sie dies tun, ohne den normalen Betrieb zu stören? Verwend Sie möglichst wenig Autorität, um die Datei zu löschen!</t>
@@ -1768,24 +1771,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="191.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="180.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="154.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="143.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="191.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2011,7 +2014,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2092,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2634,7 +2637,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3592,12 +3595,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3615,10 +3618,10 @@
         <v>430</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3670,9 +3673,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>9</v>
+        <v>436</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>435</v>
@@ -3696,38 +3699,38 @@
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E70" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3748,7 +3751,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="K72" s="4"/>

--- a/Data/quiz_data.xlsx
+++ b/Data/quiz_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projekte_Git\HS_Quis_Fragen_lernen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albinothajrizaj/Desktop/Hochschule_Kempten/7_Semester/Rechnernetze/Rechnernetze-Quiz/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676DB83A-9686-4F29-920B-B908ED102300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76D041A-42DB-0747-8E14-2691151939C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="444">
   <si>
     <t>type</t>
   </si>
@@ -1343,9 +1343,6 @@
   </si>
   <si>
     <t>Sie sind Adminstrator eines Windows Server 2003-Computers namens Server1. Sie erstellen eine Freigabe namens Frei. Sie erzeugen einen Ordner Dokumente in Frei. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Berechtigungen der Freigabe Frei:  Jeder: Vollzugriff Verweigern   Domänen-Admins: Vollzugriff   Ausbildung: Vollzugriff  -  Berechtigungen des Ordners Dokumente:  Benutzer: Lesen   Domänen-Admin: Vollzugriff  -  Eine Mitarbeiterin namens Maria ist Mitglied der Gruppe Ausbilung und Benutzer. Maria will eine Datei \Server1\Frei\Dokumente\Test.doc abspeichern, doch sie erhält eine Fehlermeldung, dass der Zugriff verweigert wird.  -  Zu erzielendes Ergebnis:  Maria soll alle Dateien im Ordner Dokumente ändern und löschen können.  -  Zusätzlich, wünschenswerte Ergebnisse:  Die Berechtigungen der Freigabe sollen nicht verändert werden. Maria soll nicht mehr Zugriff erhalten als nötig  -  Vorgeschlagene Lösung:  Geben Sie Maria bei den Berechtigungen des Ordners Dokumente die Berechtigung Ändern  -  Bewertung der Vorgeschlagenen Lösung:  Welche(s) Ergenis(se) bewirken die vorgeschlagene Lösung?</t>
-  </si>
-  <si>
-    <t>Mc</t>
   </si>
   <si>
     <t>Sie sind Adminstrator eines kleinen Sportartikelherstellers.Der Personalchef Ihrer Firma hat einige Dateien in einer Freigabe Personaldaten auf einem 2003-Server erstllt.. Die Freigabe- und NTFS-Berechtigungen von Frei und Dokumente sind wie folgt:  -  Freigabeberechtigungen von Personaldaten:  Benutzer: Lesen   Administrator: Vollzugriff   PersonalabteilungLeiter: Vollzugriff  -  NTFS-Berechtigungen von Personaldaten:  Benutzer: Lesen  Administrator: Lesen  PersonalabteilungLeiter: Vollzugriff  -  Während der Personalchef im Urlaub ist, werden Sie von einem Benutzer angerufen. Anscheinend befinden sich in einer Datei des Ordners Personaldaten sehr vertrauliche Daten und sie sollte entfernt werden. Wie können Sie dies tun, ohne den normalen Betrieb zu stören? Verwend Sie möglichst wenig Autorität, um die Datei zu löschen!</t>
@@ -1771,24 +1768,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="191.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="180.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="154.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="143.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="191.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="180.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="143.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1820,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1852,7 +1849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1901,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2011,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2382,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2414,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2475,7 +2472,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2556,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2634,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2660,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2712,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2773,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>9</v>
       </c>
@@ -2863,7 +2860,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>9</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
@@ -2921,7 +2918,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>9</v>
       </c>
@@ -3063,7 +3060,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>9</v>
       </c>
@@ -3118,7 +3115,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3196,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>9</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>9</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +3488,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -3517,7 +3514,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3595,12 +3592,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -3618,10 +3615,10 @@
         <v>430</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -3647,7 +3644,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3673,9 +3670,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>436</v>
+        <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>435</v>
@@ -3699,38 +3696,38 @@
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" t="s">
         <v>438</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>439</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>440</v>
-      </c>
-      <c r="G70" t="s">
-        <v>441</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3751,7 +3748,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="K72" s="4"/>
